--- a/test_case_report/sprint_35.xlsx
+++ b/test_case_report/sprint_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23C732-DAF6-4A89-B9BA-9365FD6EEA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C7010-1685-4C03-A723-2C1F5CBA2459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Spint( 35) - Day 2 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 35) - Day 3 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
@@ -585,13 +588,44 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>77</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_case_report/sprint_35.xlsx
+++ b/test_case_report/sprint_35.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C7010-1685-4C03-A723-2C1F5CBA2459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5716DD-E37E-4965-A8AA-4B1A63EF2A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="test_summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Spint( 35) - Day 3 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 35) - Day 4 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 35) - Day 5 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 35) - Day 6 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -519,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
@@ -561,71 +570,164 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
     <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C14" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="C18" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C19" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
-        <v>154</v>
+      <c r="C20" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_case_report/sprint_35.xlsx
+++ b/test_case_report/sprint_35.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5716DD-E37E-4965-A8AA-4B1A63EF2A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C7010-1685-4C03-A723-2C1F5CBA2459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Spint( 35) - Day 3 - Test Case Summary</t>
-  </si>
-  <si>
-    <t>Spint( 35) - Day 4 - Test Case Summary</t>
-  </si>
-  <si>
-    <t>Spint( 35) - Day 5 - Test Case Summary</t>
-  </si>
-  <si>
-    <t>Spint( 35) - Day 6 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -528,16 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
@@ -570,164 +561,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>274</v>
+      <c r="C16" s="3">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
